--- a/DB products.xlsx
+++ b/DB products.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Categories</t>
   </si>
@@ -69,9 +69,6 @@
     <t>p_hightlight</t>
   </si>
   <si>
-    <t>p_rate</t>
-  </si>
-  <si>
     <t>p_discount</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>char(15)</t>
   </si>
   <si>
-    <t>int(11)</t>
-  </si>
-  <si>
     <t>varchar(255)</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>ca_id</t>
-  </si>
-  <si>
     <t>co_id</t>
   </si>
   <si>
@@ -121,6 +112,24 @@
   </si>
   <si>
     <t xml:space="preserve">int(11) </t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>name space</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>cat_id</t>
   </si>
 </sst>
 </file>
@@ -371,9 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,7 +464,7 @@
       <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>13138</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>105103</xdr:rowOff>
@@ -493,16 +502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19707</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1002109</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
+      <xdr:rowOff>99220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>479534</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1141015</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -511,8 +520,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7271845" y="670034"/>
-          <a:ext cx="459827" cy="1504294"/>
+          <a:off x="6985000" y="674689"/>
+          <a:ext cx="1160859" cy="1131092"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -537,16 +546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>91966</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1150937</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -555,8 +564,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7252138" y="656897"/>
-          <a:ext cx="486103" cy="197069"/>
+          <a:off x="7004844" y="660866"/>
+          <a:ext cx="1150937" cy="23743"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -582,15 +591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1478017</xdr:colOff>
+      <xdr:colOff>1487938</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>98535</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>243052</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91966</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1279922</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171342</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -599,8 +608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3264776" y="670035"/>
-          <a:ext cx="1563414" cy="1898431"/>
+          <a:off x="3273876" y="635000"/>
+          <a:ext cx="1280265" cy="1848139"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -913,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K34"/>
+  <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,398 +933,372 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="3.25" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="25" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="F6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
+      <c r="C7" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="8"/>
+      <c r="H8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>29</v>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="11" t="s">
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>1</v>
-      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="20"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="21"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="21"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="20"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
@@ -1330,9 +1313,9 @@
   <mergeCells count="5">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
